--- a/biology/Zoologie/Calliteara/Calliteara.xlsx
+++ b/biology/Zoologie/Calliteara/Calliteara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calliteara est un genre de lépidoptères (papillons) de la famille des Erebidae, de la sous-famille des Lymantriinae et de la tribu des Orgyiini.
 </t>
@@ -511,9 +523,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chenilles de certaines espèces de ce genre (comme celles de Calliteara cerigoides en Asie) peuvent pulluler et être défoliatrices, notamment dans les contextes de monospécificité (une même essence d'arbre uniquement ou fortement dominante dans une parcelle ou un massif)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles de certaines espèces de ce genre (comme celles de Calliteara cerigoides en Asie) peuvent pulluler et être défoliatrices, notamment dans les contextes de monospécificité (une même essence d'arbre uniquement ou fortement dominante dans une parcelle ou un massif).
 </t>
         </is>
       </c>
@@ -542,15 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Calliteara a été décrit par l'entomologiste anglais Arthur Gardiner Butler en 1881[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Calliteara a été décrit par l'entomologiste anglais Arthur Gardiner Butler en 1881.
 Son espèce type est Calliteara argentata  (Butler, 1881).
-Synonymie
-Dasychira Hübner, [1806] [3]
-Axiologa Turner, 1904[4]
-Elkneria Börner, 1932[5]
-Macaronesia Bacallado &amp; Gómez Bustillo &amp; Vives, 1981[6]</t>
+</t>
         </is>
       </c>
     </row>
@@ -575,10 +587,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dasychira Hübner,  
+Axiologa Turner, 1904
+Elkneria Börner, 1932
+Macaronesia Bacallado &amp; Gómez Bustillo &amp; Vives, 1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calliteara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calliteara</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Groupe pudibunda
 Calliteara argentata (Butler, 1881)
@@ -631,9 +684,43 @@
 Calliteara subnigra  (Bethune-Baker, 1904)
 Calliteara subnigropunctata  (Bethune-Baker, 1904)
 Calliteara taiwana (Wileman, 1910)
-Calliteara wandammena  (Bethune-Baker, 1916)
-Espèces présentes en Europe
-Calliteara abietis (Denis &amp; Schiffermüller, 1775)
+Calliteara wandammena  (Bethune-Baker, 1916)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Calliteara</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Calliteara</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces présentes en Europe</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Calliteara abietis (Denis &amp; Schiffermüller, 1775)
 Calliteara fascelina (Linnaeus, 1758)
 Calliteara fortunata (Rogenhofer, 1891)
 Calliteara pudibunda (Linnaeus, 1758) - la Pudibonde, la Patte étendue</t>
